--- a/database/data/kegiatan_manmit.xlsx
+++ b/database/data/kegiatan_manmit.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\herd\sikendis\database\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4BE5024-7708-4DD4-BA9B-6A9FE23CA76A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB11AF7F-7726-48C2-BD73-88E419F6F3D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2660" yWindow="2660" windowWidth="13010" windowHeight="9970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1482" uniqueCount="749">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1486" uniqueCount="751">
   <si>
     <t>ID Kegiatan</t>
   </si>
@@ -2278,6 +2278,12 @@
   </si>
   <si>
     <t>(GALIAN-URT25) SURVEI TAHUNAN USAHA PENGGALIAN BAHAN INDUSTRI DAN KONSTRUKSI 2025</t>
+  </si>
+  <si>
+    <t>CAPTIVE-POWER25-TAHUNAN</t>
+  </si>
+  <si>
+    <t>(CAPTIVE-POWER25) SURVEI CAPTIVE POWER TAHUN 2025</t>
   </si>
 </sst>
 </file>
@@ -2618,10 +2624,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F370"/>
+  <dimension ref="A1:F371"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A365" workbookViewId="0">
+      <selection activeCell="E372" sqref="E372"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10030,6 +10036,26 @@
         <v>168</v>
       </c>
     </row>
+    <row r="371" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A371" t="s">
+        <v>749</v>
+      </c>
+      <c r="B371" t="s">
+        <v>750</v>
+      </c>
+      <c r="C371" t="s">
+        <v>8</v>
+      </c>
+      <c r="D371" s="1">
+        <v>45809</v>
+      </c>
+      <c r="E371" s="1">
+        <v>45869</v>
+      </c>
+      <c r="F371" t="s">
+        <v>168</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
